--- a/China.xlsx
+++ b/China.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>Energy_Use</t>
+  </si>
+  <si>
+    <t>Forign_Direct_Investment%GDP</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
   </si>
   <si>
     <t>1995</t>
@@ -470,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,603 +516,814 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>10.9539543428699</v>
+        <v>3.92025136776569</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>25.6864244</v>
+      </c>
+      <c r="F2">
+        <v>1.46730321087928</v>
+      </c>
+      <c r="G2">
+        <v>766.995329395649</v>
+      </c>
+      <c r="H2">
+        <v>0.966308310992784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>9.262786084062339</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>77.16</v>
+      </c>
+      <c r="E3">
+        <v>29.44489072</v>
+      </c>
+      <c r="F3">
+        <v>1.36443400840349</v>
+      </c>
+      <c r="G3">
+        <v>736.851801386885</v>
+      </c>
+      <c r="H3">
+        <v>1.13883773180262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>14.2245295931824</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>77.11</v>
+      </c>
+      <c r="E4">
+        <v>34.0846619</v>
+      </c>
+      <c r="F4">
+        <v>1.2255362283362</v>
+      </c>
+      <c r="G4">
+        <v>752.628662540666</v>
+      </c>
+      <c r="H4">
+        <v>2.61316219284371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>13.8837293021031</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>76.83</v>
+      </c>
+      <c r="E5">
+        <v>37.95357331</v>
+      </c>
+      <c r="F5">
+        <v>1.14961943083465</v>
+      </c>
+      <c r="G5">
+        <v>788.128723566749</v>
+      </c>
+      <c r="H5">
+        <v>6.18688207614214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>13.0368066319673</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>48.55720035</v>
+      </c>
+      <c r="F6">
+        <v>1.13026063215591</v>
+      </c>
+      <c r="G6">
+        <v>816.162889997357</v>
+      </c>
+      <c r="H6">
+        <v>5.98715629417845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10.9539543428699</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>76.40000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>56.85936289</v>
       </c>
-      <c r="F2">
+      <c r="F7">
         <v>1.08650915088974</v>
       </c>
-      <c r="G2">
+      <c r="G7">
         <v>866.834374260803</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="H7">
+        <v>4.88044415982562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>9.922556752311619</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>12.9946463432466</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>76.15000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>56.64713312</v>
       </c>
-      <c r="F3">
+      <c r="F8">
         <v>1.04814151412165</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>881.653737423514</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="H8">
+        <v>4.65182665075146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>9.236779891626719</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>5.04826011122088</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>75.86</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>67.91726097</v>
       </c>
-      <c r="F4">
+      <c r="F9">
         <v>1.02345002419879</v>
       </c>
-      <c r="G4">
+      <c r="G9">
         <v>871.756323801394</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="H9">
+        <v>4.72533415242342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>7.84595178761953</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>8.518410338743079</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>75.59999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E10">
         <v>70.88444114000001</v>
       </c>
-      <c r="F5">
+      <c r="F10">
         <v>0.959550406298151</v>
       </c>
-      <c r="G5">
+      <c r="G10">
         <v>869.358607334522</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="H10">
+        <v>4.43557710151074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>7.66165150053656</v>
       </c>
-      <c r="C6">
+      <c r="C11">
         <v>6.32691254412303</v>
       </c>
-      <c r="D6">
+      <c r="D11">
         <v>75.2</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>77.44729803</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>0.865851392993279</v>
       </c>
-      <c r="G6">
+      <c r="G11">
         <v>878.52453551629</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
+      <c r="H11">
+        <v>3.74900388024567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>8.49009340575191</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>7.27717444528298</v>
       </c>
-      <c r="D7">
+      <c r="D12">
         <v>74.81999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>0.787956592953992</v>
       </c>
-      <c r="G7">
+      <c r="G12">
         <v>898.987313140273</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="H12">
+        <v>3.4750822457556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>8.3357334781433</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>21.1093405298278</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>73.73999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>109.694188</v>
       </c>
-      <c r="F8">
+      <c r="F13">
         <v>0.726380637838525</v>
       </c>
-      <c r="G8">
+      <c r="G13">
         <v>928.811433738255</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
+      <c r="H13">
+        <v>3.51300212008642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>9.133630789933161</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>13.0249684252084</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>72.67</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>138.6582488</v>
       </c>
-      <c r="F9">
+      <c r="F14">
         <v>0.669999567758626</v>
       </c>
-      <c r="G9">
+      <c r="G14">
         <v>984.810714620431</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
+      <c r="H14">
+        <v>3.60909988461638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <v>10.038030481108</v>
       </c>
-      <c r="C10">
+      <c r="C15">
         <v>23.7906440569952</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>71.56</v>
       </c>
-      <c r="E10">
+      <c r="E15">
         <v>182.785201</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>0.622860936133583</v>
       </c>
-      <c r="G10">
+      <c r="G15">
         <v>1118.43177274138</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+      <c r="H15">
+        <v>3.48740330983691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <v>10.1136213780461</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>19.2049937795997</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>70.88</v>
       </c>
-      <c r="E11">
+      <c r="E16">
         <v>226.8347239</v>
       </c>
-      <c r="F11">
+      <c r="F16">
         <v>0.593932815112141</v>
       </c>
-      <c r="G11">
+      <c r="G16">
         <v>1268.13290434581</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
+      <c r="H16">
+        <v>3.48364111373749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>11.3945918097286</v>
       </c>
-      <c r="C12">
+      <c r="C17">
         <v>10.6747054064276</v>
       </c>
-      <c r="D12">
+      <c r="D17">
         <v>70.23999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E17">
         <v>283.6441931</v>
       </c>
-      <c r="F12">
+      <c r="F17">
         <v>0.588124989556992</v>
       </c>
-      <c r="G12">
+      <c r="G17">
         <v>1393.69132405731</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+      <c r="H17">
+        <v>4.55425403392231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
         <v>12.7209556651735</v>
       </c>
-      <c r="C13">
+      <c r="C18">
         <v>15.3867231286448</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>69.77</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>346.1719795</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>0.5583743673730019</v>
       </c>
-      <c r="G13">
+      <c r="G18">
         <v>1515.1736777471</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
+      <c r="H18">
+        <v>4.50857901571575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>14.2308609330803</v>
       </c>
-      <c r="C14">
+      <c r="C19">
         <v>17.5105247515272</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>69.41</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>414.8560285</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>0.522271866392275</v>
       </c>
-      <c r="G14">
+      <c r="G19">
         <v>1630.17102857988</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
+      <c r="H19">
+        <v>4.40096483008318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
         <v>9.65067891955702</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>13.8981792641626</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>68.83</v>
       </c>
-      <c r="E15">
+      <c r="E20">
         <v>450.2958821</v>
       </c>
-      <c r="F15">
+      <c r="F20">
         <v>0.51238693163744</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <v>1672.90411994066</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
+      <c r="H20">
+        <v>3.73363488969862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
         <v>9.398725632379779</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>20.8668304853003</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>68.37</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>403.192961</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>0.497381400884935</v>
       </c>
-      <c r="G16">
+      <c r="G21">
         <v>1778.43351862146</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
+      <c r="H21">
+        <v>2.56888829067325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
         <v>10.6358710646812</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>15.8793500771218</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>68.05</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>516.4926068</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>0.482959688678361</v>
       </c>
-      <c r="G17">
+      <c r="G22">
         <v>1954.72255616896</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
+      <c r="H22">
+        <v>4.0035629002639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>9.55083217886229</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>8.826938372193471</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <v>67.86</v>
       </c>
-      <c r="E18">
+      <c r="E23">
         <v>561.8922874</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <v>0.546457594880274</v>
       </c>
-      <c r="G18">
+      <c r="G23">
         <v>2085.08302163141</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
+      <c r="H23">
+        <v>3.7088289021211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
         <v>7.86373644866194</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>7.50272038571325</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>67.58</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>596.8391726999999</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>0.678345458846803</v>
       </c>
-      <c r="G19">
+      <c r="G24">
         <v>2149.60256906343</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
+      <c r="H24">
+        <v>2.82709055579985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>7.766150097539</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>9.368834224263541</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>67.34</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>647.4202795</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>0.666072977690069</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>2204.24329905226</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
+      <c r="H25">
+        <v>3.03987546926686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>7.42576365645755</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <v>7.4729762146704</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>67.06999999999999</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>684.4705832</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>0.630326389541893</v>
       </c>
-      <c r="G21">
+      <c r="G26">
         <v>2224.35489845903</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
+      <c r="H26">
+        <v>2.55923344660606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>7.04132887865481</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>3.56025625894819</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>66.76000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <v>680.590456</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <v>0.581456146657648</v>
       </c>
-      <c r="G22">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
+      <c r="G27">
+        <v>1800</v>
+      </c>
+      <c r="H27">
+        <v>2.19218160303955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
         <v>6.84876220503246</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>7.23926986101135</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>66.48</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <v>690.2470659000001</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>0.573050906069647</v>
       </c>
-      <c r="G23">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+      <c r="G28">
+        <v>1800</v>
+      </c>
+      <c r="H28">
+        <v>1.55564214957618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
         <v>6.94720079327288</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <v>6.32395939581063</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>66.14</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>738.9275362</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>0.605245013482969</v>
       </c>
-      <c r="G24">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
+      <c r="G29">
+        <v>1800</v>
+      </c>
+      <c r="H29">
+        <v>1.34913267883946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
         <v>6.74977383247717</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>6.75917007998336</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>65.76000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <v>769.440752</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <v>0.467672053461959</v>
       </c>
-      <c r="G25">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
+      <c r="G30">
+        <v>1800</v>
+      </c>
+      <c r="H30">
+        <v>1.69390529382545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
         <v>5.94971423273162</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>3.98543867617695</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>65.09999999999999</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>784.4925731</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>0.354740890170827</v>
       </c>
-      <c r="G26">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
+      <c r="G31">
+        <v>1800</v>
+      </c>
+      <c r="H31">
+        <v>1.31071878144875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
         <v>2.3475135727457</v>
       </c>
-      <c r="C27">
+      <c r="C32">
         <v>5.21683592750635</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>63.48</v>
       </c>
-      <c r="E27">
-        <v>580</v>
-      </c>
-      <c r="F27">
+      <c r="E32">
+        <v>750</v>
+      </c>
+      <c r="F32">
         <v>0.225947587112011</v>
       </c>
-      <c r="G27">
-        <v>2150</v>
+      <c r="G32">
+        <v>1800</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
